--- a/spliced/walkingToRunning/2023-03-26_18-54-06/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-26_18-54-06/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>14.64207935333252</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-61.64058685302734</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21.88947105407715</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6875860691070557</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-27.69689178466797</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-7.563150405883789</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-14.80709171295166</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-1.68331241607666</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-72.37289428710938</v>
+      </c>
+      <c r="C24" t="n">
+        <v>70.38520812988281</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-11.52985954284668</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10.27250671386719</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.496110916137695</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4.430462837219238</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-20.51617813110352</v>
+      </c>
+      <c r="C26" t="n">
+        <v>37.68183135986328</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-80.67318725585938</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-3.729990005493164</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-17.92157745361328</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-7.960968494415283</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.627067565917969</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.957346677780152</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-12.41016101837158</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-18.66624450683594</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.092851161956787</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6.215286254882812</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.965664863586426</v>
+      </c>
+      <c r="C30" t="n">
+        <v>14.03029632568359</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-6.658430576324463</v>
+      </c>
+      <c r="B31" t="n">
+        <v>14.9360237121582</v>
+      </c>
+      <c r="C31" t="n">
+        <v>14.47612380981445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
